--- a/data/trans_orig/IP3110_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3110_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{237245A8-530F-4394-A0D4-43245F43A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8820E6C1-3F05-4DBC-894A-3750C9A96355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10E5ED41-1B97-441A-965A-A3D781B08753}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{46AA3492-C35E-43DD-A268-E47BEDDD558E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,379 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>1 ó 2 veces semana</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>39,86%</t>
@@ -98,67 +467,31 @@
     <t>45,11%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>5,6%</t>
@@ -188,231 +521,243 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
     <t>35,2%</t>
   </si>
   <si>
@@ -440,58 +785,31 @@
     <t>40,41%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>9,38%</t>
@@ -521,322 +839,79 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>40,99%</t>
@@ -866,55 +941,28 @@
     <t>43,78%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>4,6%</t>
@@ -939,54 +987,6 @@
   </si>
   <si>
     <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533F57C3-1D05-41DB-9C9D-5FFB882F9C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCCF759-9168-407A-ABFC-AB074EBDDD9D}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1496,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>96827</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1511,289 +1511,289 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>77640</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>247</v>
-      </c>
-      <c r="N4" s="7">
-        <v>174467</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>49825</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>41258</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>91083</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40539</v>
+        <v>1695</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>25180</v>
+        <v>1687</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>65719</v>
+        <v>3382</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>13608</v>
+        <v>8335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>10656</v>
+        <v>10284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7">
+        <v>18618</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="N7" s="7">
-        <v>24263</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>6989</v>
+        <v>503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>5938</v>
+        <v>2215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>12927</v>
+        <v>2718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>864</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>977</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7">
-        <v>35126</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7">
-        <v>25791</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>60917</v>
+        <v>1841</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,357 +1802,357 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>186462</v>
+        <v>15163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>592</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>429375</v>
+        <v>26560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>47479</v>
+        <v>690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>43257</v>
+        <v>732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>90736</v>
+        <v>1422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>29613</v>
+        <v>12653</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>20662</v>
+        <v>12909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
+        <v>33</v>
+      </c>
+      <c r="N12" s="7">
+        <v>25561</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="N12" s="7">
-        <v>50276</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>12653</v>
+        <v>29613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>12909</v>
+        <v>20662</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>25561</v>
+        <v>50276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>4072</v>
+        <v>47479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>2750</v>
+        <v>43257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="N14" s="7">
-        <v>6821</v>
+        <v>90736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
-        <v>690</v>
+        <v>16716</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>732</v>
+        <v>20383</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>1422</v>
+        <v>37098</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>16716</v>
+        <v>4072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>20383</v>
+        <v>2750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>37098</v>
+        <v>6821</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2167,13 @@
         <v>111222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2182,13 +2182,13 @@
         <v>100692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>307</v>
@@ -2197,321 +2197,321 @@
         <v>211914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>60355</v>
+        <v>6989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>58522</v>
+        <v>5938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>118877</v>
+        <v>12927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>28039</v>
+        <v>40539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>25016</v>
+        <v>25180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N19" s="7">
-        <v>53055</v>
+        <v>65719</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>18575</v>
+        <v>49825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I20" s="7">
-        <v>20829</v>
+        <v>41258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="N20" s="7">
-        <v>39404</v>
+        <v>91083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="D21" s="7">
-        <v>16076</v>
+        <v>96827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I21" s="7">
-        <v>12759</v>
+        <v>77640</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="N21" s="7">
-        <v>28836</v>
+        <v>174467</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>10478</v>
+        <v>35126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>5548</v>
+        <v>25791</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="N22" s="7">
-        <v>16026</v>
+        <v>60917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>37933</v>
+        <v>13608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I23" s="7">
-        <v>45817</v>
+        <v>10656</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="N23" s="7">
-        <v>83750</v>
+        <v>24263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,357 +2520,357 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D24" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H24" s="7">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="I24" s="7">
-        <v>168490</v>
+        <v>186462</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
-        <v>467</v>
+        <v>592</v>
       </c>
       <c r="N24" s="7">
-        <v>339947</v>
+        <v>429375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>8335</v>
+        <v>1237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>10284</v>
+        <v>3543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>18618</v>
+        <v>4780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7">
-        <v>1695</v>
+        <v>15981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>1687</v>
+        <v>10811</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N26" s="7">
-        <v>3382</v>
+        <v>26791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>40791</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>37798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>78588</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D28" s="7">
-        <v>864</v>
+        <v>77239</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I28" s="7">
-        <v>977</v>
+        <v>75316</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="N28" s="7">
-        <v>1841</v>
+        <v>152554</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>28970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="7">
+        <v>36</v>
+      </c>
+      <c r="I29" s="7">
+        <v>26102</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>200</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>55072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>503</v>
+        <v>6902</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7">
+        <v>12485</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="7">
-        <v>4</v>
-      </c>
-      <c r="I30" s="7">
-        <v>2215</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>35</v>
+      </c>
+      <c r="N30" s="7">
+        <v>19387</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="M30" s="7">
-        <v>5</v>
-      </c>
-      <c r="N30" s="7">
-        <v>2718</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,333 +2879,333 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D31" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H31" s="7">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I31" s="7">
-        <v>15163</v>
+        <v>166054</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M31" s="7">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="N31" s="7">
-        <v>26560</v>
+        <v>337173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D32" s="7">
-        <v>77239</v>
+        <v>10478</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="7">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5548</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H32" s="7">
-        <v>104</v>
-      </c>
-      <c r="I32" s="7">
-        <v>75316</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>20</v>
+      </c>
+      <c r="N32" s="7">
+        <v>16026</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M32" s="7">
-        <v>194</v>
-      </c>
-      <c r="N32" s="7">
-        <v>152554</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D33" s="7">
-        <v>40791</v>
+        <v>18575</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="7">
+        <v>25</v>
+      </c>
+      <c r="I33" s="7">
+        <v>20829</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="K33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="M33" s="7">
+        <v>46</v>
+      </c>
+      <c r="N33" s="7">
+        <v>39404</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H33" s="7">
-        <v>43</v>
-      </c>
-      <c r="I33" s="7">
-        <v>37798</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M33" s="7">
-        <v>95</v>
-      </c>
-      <c r="N33" s="7">
-        <v>78588</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D34" s="7">
-        <v>15981</v>
+        <v>28039</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="7">
+        <v>36</v>
+      </c>
+      <c r="I34" s="7">
+        <v>25016</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>77</v>
+      </c>
+      <c r="N34" s="7">
+        <v>53055</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H34" s="7">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7">
-        <v>10811</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M34" s="7">
-        <v>33</v>
-      </c>
-      <c r="N34" s="7">
-        <v>26791</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C35" s="7">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D35" s="7">
-        <v>6902</v>
+        <v>60355</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="7">
+        <v>83</v>
+      </c>
+      <c r="I35" s="7">
+        <v>58522</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>168</v>
+      </c>
+      <c r="N35" s="7">
+        <v>118877</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="7">
-        <v>20</v>
-      </c>
-      <c r="I35" s="7">
-        <v>12485</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M35" s="7">
-        <v>35</v>
-      </c>
-      <c r="N35" s="7">
-        <v>19387</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C36" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D36" s="7">
-        <v>1237</v>
+        <v>37933</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H36" s="7">
+        <v>63</v>
+      </c>
+      <c r="I36" s="7">
+        <v>45817</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="7">
-        <v>5</v>
-      </c>
-      <c r="I36" s="7">
-        <v>3543</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>115</v>
+      </c>
+      <c r="N36" s="7">
+        <v>83750</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M36" s="7">
-        <v>7</v>
-      </c>
-      <c r="N36" s="7">
-        <v>4780</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7">
-        <v>28970</v>
+        <v>16076</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="H37" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I37" s="7">
-        <v>26102</v>
+        <v>12759</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>261</v>
@@ -3217,10 +3217,10 @@
         <v>263</v>
       </c>
       <c r="M37" s="7">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="N37" s="7">
-        <v>55072</v>
+        <v>28836</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>264</v>
@@ -3238,49 +3238,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D38" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H38" s="7">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I38" s="7">
-        <v>166054</v>
+        <v>168490</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M38" s="7">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="N38" s="7">
-        <v>337173</v>
+        <v>339947</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,166 +3291,166 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="D39" s="7">
-        <v>290235</v>
+        <v>19394</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>267</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7">
+        <v>23</v>
+      </c>
+      <c r="I39" s="7">
+        <v>15760</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H39" s="7">
-        <v>385</v>
-      </c>
-      <c r="I39" s="7">
-        <v>265017</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7">
+        <v>48</v>
+      </c>
+      <c r="N39" s="7">
+        <v>35154</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M39" s="7">
-        <v>772</v>
-      </c>
-      <c r="N39" s="7">
-        <v>555252</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C40" s="7">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="D40" s="7">
-        <v>149963</v>
+        <v>87747</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="7">
+        <v>94</v>
+      </c>
+      <c r="I40" s="7">
+        <v>69728</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H40" s="7">
-        <v>173</v>
-      </c>
-      <c r="I40" s="7">
-        <v>126421</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>195</v>
+      </c>
+      <c r="N40" s="7">
+        <v>157475</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M40" s="7">
-        <v>367</v>
-      </c>
-      <c r="N40" s="7">
-        <v>276384</v>
-      </c>
-      <c r="O40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C41" s="7">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D41" s="7">
-        <v>87747</v>
+        <v>149963</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="7">
+        <v>173</v>
+      </c>
+      <c r="I41" s="7">
+        <v>126421</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="7">
-        <v>94</v>
-      </c>
-      <c r="I41" s="7">
-        <v>69728</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>367</v>
+      </c>
+      <c r="N41" s="7">
+        <v>276384</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M41" s="7">
-        <v>195</v>
-      </c>
-      <c r="N41" s="7">
-        <v>157475</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
-        <v>63</v>
+        <v>387</v>
       </c>
       <c r="D42" s="7">
-        <v>41523</v>
+        <v>290235</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>293</v>
@@ -3459,10 +3459,10 @@
         <v>294</v>
       </c>
       <c r="H42" s="7">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="I42" s="7">
-        <v>39626</v>
+        <v>265017</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>295</v>
@@ -3474,10 +3474,10 @@
         <v>297</v>
       </c>
       <c r="M42" s="7">
-        <v>127</v>
+        <v>772</v>
       </c>
       <c r="N42" s="7">
-        <v>81149</v>
+        <v>555252</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>298</v>
@@ -3492,28 +3492,28 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D43" s="7">
-        <v>19394</v>
+        <v>119247</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H43" s="7">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="I43" s="7">
-        <v>15760</v>
+        <v>120308</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>303</v>
@@ -3525,10 +3525,10 @@
         <v>305</v>
       </c>
       <c r="M43" s="7">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c r="N43" s="7">
-        <v>35154</v>
+        <v>239555</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>306</v>
@@ -3543,28 +3543,28 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="D44" s="7">
-        <v>119247</v>
+        <v>41523</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>310</v>
       </c>
       <c r="H44" s="7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="I44" s="7">
-        <v>120308</v>
+        <v>39626</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>311</v>
@@ -3576,10 +3576,10 @@
         <v>313</v>
       </c>
       <c r="M44" s="7">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="N44" s="7">
-        <v>239555</v>
+        <v>81149</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>314</v>
@@ -3603,13 +3603,13 @@
         <v>708108</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H45" s="7">
         <v>911</v>
@@ -3618,13 +3618,13 @@
         <v>636861</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M45" s="7">
         <v>1850</v>
@@ -3633,13 +3633,13 @@
         <v>1344969</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3110_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3110_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{225D32F1-8CA5-4179-A8AC-B10629DDA03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5255DCDB-4462-488E-B601-DE8CB25A8AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B0C7DE5-321F-4582-A3FB-B5824535C57D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D234A480-B8D2-4602-A34C-B471620C5740}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="314">
   <si>
     <t>Menores según la frecuencia de tomar patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,19 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,39%</t>
+    <t>35,37%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>22,05%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>menos de 1 vez semana</t>
@@ -98,874 +101,880 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>23,45%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>3,43%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1380,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE3083-2D9C-45BF-9C19-1E6DCF16B315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8FB31E-B12B-4308-847A-43B4D067FF5A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1540,13 +1549,13 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1555,13 +1564,13 @@
         <v>503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1570,13 +1579,13 @@
         <v>2215</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1585,19 +1594,19 @@
         <v>2718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -1606,13 +1615,13 @@
         <v>8335</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -1621,13 +1630,13 @@
         <v>10284</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -1636,19 +1645,19 @@
         <v>18618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1657,13 +1666,13 @@
         <v>1695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1672,13 +1681,13 @@
         <v>1687</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1687,19 +1696,19 @@
         <v>3382</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1711,10 +1720,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1726,10 +1735,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1741,16 +1750,16 @@
         <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1762,10 +1771,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1777,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1792,10 +1801,10 @@
         <v>12</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1819,13 @@
         <v>11397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -1825,13 +1834,13 @@
         <v>15163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -1840,18 +1849,18 @@
         <v>26560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1863,13 +1872,13 @@
         <v>4072</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1878,13 +1887,13 @@
         <v>2750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1893,19 +1902,19 @@
         <v>6821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -1914,13 +1923,13 @@
         <v>16716</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -1929,13 +1938,13 @@
         <v>20383</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -1944,19 +1953,19 @@
         <v>37098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
         <v>64</v>
@@ -1965,13 +1974,13 @@
         <v>47479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -1980,13 +1989,13 @@
         <v>43257</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -1995,19 +2004,19 @@
         <v>90736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2016,13 +2025,13 @@
         <v>29613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -2031,13 +2040,13 @@
         <v>20662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -2046,19 +2055,19 @@
         <v>50276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
@@ -2067,13 +2076,13 @@
         <v>12653</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -2082,13 +2091,13 @@
         <v>12909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>33</v>
@@ -2097,19 +2106,19 @@
         <v>25561</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2118,13 +2127,13 @@
         <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2133,13 +2142,13 @@
         <v>732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2148,13 +2157,13 @@
         <v>1422</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2178,13 @@
         <v>111222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2184,13 +2193,13 @@
         <v>100692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>307</v>
@@ -2199,18 +2208,18 @@
         <v>211914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2222,13 +2231,13 @@
         <v>13608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2237,13 +2246,13 @@
         <v>10656</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -2252,19 +2261,19 @@
         <v>24263</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <v>49</v>
@@ -2273,13 +2282,13 @@
         <v>35126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2288,13 +2297,13 @@
         <v>25791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -2303,19 +2312,19 @@
         <v>60917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
         <v>136</v>
@@ -2324,13 +2333,13 @@
         <v>96827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>111</v>
@@ -2339,13 +2348,13 @@
         <v>77640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>247</v>
@@ -2354,19 +2363,19 @@
         <v>174467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7">
         <v>63</v>
@@ -2375,13 +2384,13 @@
         <v>49825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -2390,13 +2399,13 @@
         <v>41258</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -2405,19 +2414,19 @@
         <v>91083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>47</v>
@@ -2426,13 +2435,13 @@
         <v>40539</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -2441,13 +2450,13 @@
         <v>25180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2456,19 +2465,19 @@
         <v>65719</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7">
         <v>9</v>
@@ -2477,13 +2486,13 @@
         <v>6989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2492,7 +2501,7 @@
         <v>5938</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>154</v>
@@ -2528,13 +2537,13 @@
         <v>242913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
@@ -2543,13 +2552,13 @@
         <v>186462</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>592</v>
@@ -2558,13 +2567,13 @@
         <v>429375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2632,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>42</v>
@@ -2674,7 +2683,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7">
         <v>90</v>
@@ -2683,13 +2692,13 @@
         <v>77239</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>104</v>
@@ -2698,13 +2707,13 @@
         <v>75316</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>194</v>
@@ -2713,19 +2722,19 @@
         <v>152554</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7">
         <v>52</v>
@@ -2734,13 +2743,13 @@
         <v>40791</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -2749,7 +2758,7 @@
         <v>37798</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>190</v>
@@ -2776,7 +2785,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>19</v>
@@ -2827,7 +2836,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2854,10 +2863,10 @@
         <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2866,10 +2875,10 @@
         <v>4780</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>210</v>
@@ -2887,13 +2896,13 @@
         <v>171119</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" s="7">
         <v>222</v>
@@ -2902,13 +2911,13 @@
         <v>166054</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M31" s="7">
         <v>442</v>
@@ -2917,13 +2926,13 @@
         <v>337173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2949,13 @@
         <v>16076</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2955,13 +2964,13 @@
         <v>12759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -2970,19 +2979,19 @@
         <v>28836</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
         <v>52</v>
@@ -2991,13 +3000,13 @@
         <v>37933</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3006,13 +3015,13 @@
         <v>45817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M33" s="7">
         <v>115</v>
@@ -3021,19 +3030,19 @@
         <v>83750</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7">
         <v>85</v>
@@ -3042,13 +3051,13 @@
         <v>60355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>83</v>
@@ -3057,13 +3066,13 @@
         <v>58522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>168</v>
@@ -3072,19 +3081,19 @@
         <v>118877</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
         <v>41</v>
@@ -3093,13 +3102,13 @@
         <v>28039</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -3111,10 +3120,10 @@
         <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -3123,19 +3132,19 @@
         <v>53055</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7">
         <v>21</v>
@@ -3144,13 +3153,13 @@
         <v>18575</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -3159,13 +3168,13 @@
         <v>20829</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -3174,19 +3183,19 @@
         <v>39404</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7">
         <v>13</v>
@@ -3195,13 +3204,13 @@
         <v>10478</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3210,13 +3219,13 @@
         <v>5548</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -3225,13 +3234,13 @@
         <v>16026</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3255,13 @@
         <v>171456</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>235</v>
@@ -3261,13 +3270,13 @@
         <v>168490</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
         <v>467</v>
@@ -3276,13 +3285,13 @@
         <v>339947</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3308,13 @@
         <v>41523</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H39" s="7">
         <v>64</v>
@@ -3329,19 +3338,19 @@
         <v>81149</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" s="7">
         <v>169</v>
@@ -3350,13 +3359,13 @@
         <v>119247</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>172</v>
@@ -3365,13 +3374,13 @@
         <v>120308</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>341</v>
@@ -3380,19 +3389,19 @@
         <v>239555</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7">
         <v>387</v>
@@ -3401,13 +3410,13 @@
         <v>290235</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>385</v>
@@ -3416,13 +3425,13 @@
         <v>265017</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>772</v>
@@ -3431,19 +3440,19 @@
         <v>555252</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7">
         <v>194</v>
@@ -3452,13 +3461,13 @@
         <v>149963</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>173</v>
@@ -3467,13 +3476,13 @@
         <v>126421</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>367</v>
@@ -3482,19 +3491,19 @@
         <v>276384</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7">
         <v>101</v>
@@ -3503,13 +3512,13 @@
         <v>87747</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>94</v>
@@ -3518,13 +3527,13 @@
         <v>69728</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>195</v>
@@ -3533,19 +3542,19 @@
         <v>157475</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="7">
         <v>25</v>
@@ -3554,13 +3563,13 @@
         <v>19394</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="H44" s="7">
         <v>23</v>
@@ -3569,13 +3578,13 @@
         <v>15760</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>48</v>
@@ -3584,13 +3593,13 @@
         <v>35154</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3614,13 @@
         <v>708108</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>911</v>
@@ -3620,13 +3629,13 @@
         <v>636861</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>1850</v>
@@ -3635,18 +3644,18 @@
         <v>1344969</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
